--- a/doc/プロジェクト計画書/プロジェクト計画書 2/工程定義.xlsx
+++ b/doc/プロジェクト計画書/プロジェクト計画書 2/工程定義.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9AEA3D-9E5B-414A-97CD-EC873259E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6E75D-443A-4AD7-9D3C-34FB600BE69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{26C3613B-E385-4F3D-89C3-42B2C2CF8E45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30480" windowHeight="17412" xr2:uid="{26C3613B-E385-4F3D-89C3-42B2C2CF8E45}"/>
   </bookViews>
   <sheets>
     <sheet name="工程定義" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工程定義!$A$1:$N$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -928,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D058A9-33A2-46B3-A04D-2E3163EB15D1}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1114,6 +1117,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="8" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>